--- a/app/models/books.xlsx
+++ b/app/models/books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nationalueduph-my.sharepoint.com/personal/puebloas_students_nu-moa_edu_ph/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\flask_book_recommender\app\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{566B4A46-9DB4-4359-9ABB-63517913552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C38EF86-4BEB-41BC-9BD5-4A41DE9F5A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EE09A01-9BB5-4966-964D-6C13950E5F9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5EE09A01-9BB5-4966-964D-6C13950E5F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="book" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="168">
   <si>
     <t>Title</t>
   </si>
@@ -507,13 +507,61 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/en/b/bb/Fifty_Shades_Darker_book_cover.jpg</t>
+  </si>
+  <si>
+    <t>I knew we were both in mortal danger. Still, in that instant, I felt well. Whole. I could feel my heart racing in my chest, the blood pulsing hot and fast through my veins again. My lungs filled deep with the sweet scent that came off his skin. It was like there had never been any hole in my chest. I was perfect - not healed, but as if there had never been a wound in the first place.
+I FELT LIKE I WAS TRAPPED IN ONE OF THOSE TERRIFYING NIGHTMARES, the one where you have to run, run till your lungs burst, but you can't make your body move fast enough.... But this was no dream, and, unlike the nightmare, I wasn't running for my life; I was racing to save something infinitely more precious. My own life meant little to me today.
+FOR BELLA SWAN THERE IS ONE THING more important than life itself: Edward Cullen. But being in love with a vampire is even more dangerous than Bella could ever have imagined. Edward has already rescued Bella from the clutches of one evil vampire, but now, as their daring relationship threatens all that is near and dear to them, they realize their troubles may be just beginning....
+LEGIONS OF READERS ENTRANCED BY THE New York Times bestseller Twilight are hungry for the continuing story of star-crossed lovers Bell and Edward. In New Moon, Stephanie Meyer delivers another irresistible combination of romance and suspense with a supernatural spin. passionate, riveting, and full of surprising twists and turns, this vampire love saga is well on its way to literary immortality.</t>
+  </si>
+  <si>
+    <t>Jeff Winston was 43 and trapped in a tepid marriage and a dead-end job, waiting for that time when he could be truly happy, when he died.
+And when he woke and he was 18 again, with all his memories of the next 25 years intact. He could live his life again, avoiding the mistakes, making money from his knowledge of the future, seeking happiness.
+Until he dies at 43 and wakes up back in college again...</t>
+  </si>
+  <si>
+    <t>The inventor of the world's first clock is punished for trying to measure God's greatest gift. He is banished to a cave for centuries and forced to listen to the voices of all who come after him seeking more days, more years. Eventually, with his soul nearly broken, Father Time is granted his freedom, along with a magical hourglass and a mission: a chance to redeem himself by teaching two earthly people the true meaning of time.
+He returns to our world - now dominated by the hour-counting he so innocently began - and commences a journey with two unlikely partners: one a teenage girl who is about to give up on life, the other a wealthy old businessman who wants to live forever. To save himself, he must save them both. And stop the world to do so.</t>
+  </si>
+  <si>
+    <t>Combining magic, mysticism, wisdom, and wonder into an inspiring tale of self-discovery, The Alchemist has become a modern classic, selling millions of copies around the world and transforming the lives of countless readers across generations.
+Paulo Coelho's masterpiece tells the mystical story of Santiago, an Andalusian shepherd boy who yearns to travel in search of a worldly treasure. His quest will lead him to riches far different—and far more satisfying—than he ever imagined. Santiago's journey teaches us about the essential wisdom of listening to our hearts, recognizing opportunity and learning to read the omens strewn along life's path, and, most importantly, following our dreams.</t>
+  </si>
+  <si>
+    <t>A masterpiece of rebellion and imprisonment where war is peace freedom is slavery and Big Brother is watching. Thought Police, Big Brother, Orwellian - these words have entered our vocabulary because of George Orwell's classic dystopian novel 1984. The story of one man's Nightmare Odyssey as he pursues a forbidden love affair through a world ruled by warring states and a power structure that controls not only information but also individual thought and memory 1984 is a prophetic haunting tale More relevant than ever before 1984 exposes the worst crimes imaginable the destruction of truth freedom and individuality. With a foreword by Thomas Pynchon. This beautiful paperback edition features deckled edges and french flaps a perfect gift for any occasion</t>
+  </si>
+  <si>
+    <t>Aldous Huxley's profoundly important classic of world literature, Brave New World is a searching vision of an unequal, technologically-advanced future where humans are genetically bred, socially indoctrinated, and pharmaceutically anesthetized to passively uphold an authoritarian ruling order–all at the cost of our freedom, full humanity, and perhaps also our souls. “A genius [who] who spent his life decrying the onward march of the Machine” (The New Yorker), Huxley was a man of incomparable talents: equally an artist, a spiritual seeker, and one of history’s keenest observers of human nature and civilization. Brave New World, his masterpiece, has enthralled and terrified millions of readers, and retains its urgent relevance to this day as both a warning to be heeded as we head into tomorrow and as thought-provoking, satisfying work of literature. Written in the shadow of the rise of fascism during the 1930s, Brave New Worldd likewise speaks to a 21st-century world dominated by mass-entertainment, technology, medicine and pharmaceuticals, the arts of persuasion, and the hidden influence of elites.
+"Aldous Huxley is the greatest 20th century writer in English." —Chicago Tribune</t>
+  </si>
+  <si>
+    <t>At the age of twelve, Jonas, a young boy from a seemingly utopian, futuristic world, is singled out to receive special training from The Giver, who alone holds the memories of the true joys and pain of life.</t>
+  </si>
+  <si>
+    <t>When Nora Seed finds herself in the Midnight Library, she has a chance to make things right. Up until now, her life has been full of misery and regret. She feels she has let everyone down, including herself. But things are about to change.
+The books in the Midnight Library enable Nora to live as if she had done things differently. With the help of an old friend, she can now undo every one of her regrets as she tries to work out her perfect life. But things aren't always what she imagined they'd be, and soon her choices place the library and herself in extreme danger.
+Before time runs out, she must answer the ultimate question: what is the best way to live?</t>
+  </si>
+  <si>
+    <t>The circus arrives without warning. No announcements precede it. It is simply there, when yesterday it was not. Within the black-and-white striped canvas tents is an utterly unique experience full of breathtaking amazements. It is called Le Cirque des Rêves, and it is only open at night.
+But behind the scenes, a fierce competition is underway—a duel between two young magicians, Celia and Marco, who have been trained since childhood expressly for this purpose by their mercurial instructors. Unbeknownst to them, this is a game in which only one can be left standing, and the circus is but the stage for a remarkable battle of imagination and will. Despite themselves, however, Celia and Marco tumble headfirst into love—a deep, magical love that makes the lights flicker and the room grow warm whenever they so much as brush hands.
+True love or not, the game must play out, and the fates of everyone involved, from the cast of extraordinary circus performers to the patrons, hang in the balance, suspended as precariously as the daring acrobats overhead.
+Written in rich, seductive prose, this spell-casting novel is a feast for the senses and the heart.</t>
+  </si>
+  <si>
+    <t>In the house of Helios, god of the sun and mightiest of the Titans, a daughter is born. But Circe is a strange child--neither powerful like her father nor viciously alluring like her mother. Turning to the world of mortals for companionship, she discovers that she does possess power: the power of witchcraft, which can transform rivals into monsters and menace the gods themselves.
+Threatened, Zeus banishes her to a deserted island, where she hones her occult craft, tames wild beasts, and crosses paths with many of the most famous figures in all of mythology, including the Minotaur, Daedalus and his doomed son Icarus, the murderous Medea, and, of course, wily Odysseus.
+But there is danger, too, for a woman who stands alone, and Circe unwittingly draws the wrath of both men and gods, ultimately finding herself pitted against one of the most terrifying and vengeful of the Olympians. To protect what she loves most, Circe must summon all her strength and choose, once and for all, whether she belongs with the gods she is born from or with the mortals she has come to love.</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,22 +970,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB145E0-DB29-4C38-857E-07BD615AE8C1}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="136.28515625" customWidth="1"/>
+    <col min="5" max="5" width="175" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,8 +1002,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -970,8 +1022,11 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1042,11 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1004,8 +1062,11 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1984</v>
       </c>
@@ -1021,8 +1082,11 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1038,8 +1102,11 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1055,8 +1122,11 @@
       <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1072,8 +1142,11 @@
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1089,8 +1162,11 @@
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1106,8 +1182,11 @@
       <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1124,7 +1203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1141,7 +1220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1158,7 +1237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1175,7 +1254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1192,7 +1271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1209,7 +1288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1243,7 +1322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1260,7 +1339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1277,7 +1356,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1294,7 +1373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1311,7 +1390,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1328,7 +1407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1345,7 +1424,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -1361,8 +1440,11 @@
       <c r="E25" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -1379,7 +1461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -1396,7 +1478,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -1413,7 +1495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -1430,7 +1512,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -1447,7 +1529,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1464,7 +1546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -1481,7 +1563,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -1498,7 +1580,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -1515,7 +1597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -1532,7 +1614,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -1549,7 +1631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1566,7 +1648,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -1583,7 +1665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -1600,7 +1682,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -1617,7 +1699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -1634,7 +1716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -1651,7 +1733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -1668,7 +1750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -1685,7 +1767,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -1702,7 +1784,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -1719,7 +1801,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -1736,7 +1818,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -1753,7 +1835,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -1770,7 +1852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>155</v>
       </c>

--- a/app/models/books.xlsx
+++ b/app/models/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\flask_book_recommender\app\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C38EF86-4BEB-41BC-9BD5-4A41DE9F5A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39DD3EB-512E-47FD-A9A7-02DD2A4F52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5EE09A01-9BB5-4966-964D-6C13950E5F9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
   <si>
     <t>Title</t>
   </si>
@@ -555,6 +555,93 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>It is 1939. Nazi Germany. The country is holding its breath. Death has never been busier, and will be busier still.
+By her brother's graveside, Liesel's life is changed when she picks up a single object, partially hidden in the snow. It is The Gravedigger's Handbook, left behind there by accident, and it is her first act of book thievery. So begins a love affair with books and words, as Liesel, with the help of her accordian-playing foster father, learns to read. Soon she is stealing books from Nazi book-burnings, the mayor's wife's library, wherever there are books to be found.
+But these are dangerous times. When Liesel's foster family hides a Jew in their basement, Liesel's world is both opened up, and closed down.
+In superbly crafted writing that burns with intensity, award-winning author Markus Zusak has given us one of the most enduring stories of our time.
+(Note: this title was not published as YA fiction)</t>
+  </si>
+  <si>
+    <t>Oprah’s Book Club Pick • Ocean Vuong returns with a bighearted novel about chosen family, unexpected friendship, and the stories we tell ourselves in order to survive
+The hardest thing in the world is to live only once…
+One late summer evening in the post-industrial town of East Gladness, Connecticut, nineteen-year-old Hai stands on the edge of a bridge in pelting rain, ready to jump, when he hears someone shout across the river. The voice belongs to Grazina, an elderly widow succumbing to dementia, who convinces him to take another path. Bereft and out of options, he quickly becomes her caretaker. Over the course of the year, the unlikely pair develops a life-altering bond, one built on empathy, spiritual reckoning, and heartbreak, with the power to alter Hai’s relationship to himself, his family, and a community at the brink.
+Following the cycles of history, memory, and time, The Emperor of Gladness shows the profound ways in which love, labor, and loneliness form the bedrock of American life. At its heart is a brave epic about what it means to exist on the fringes of society and to reckon with the wounds that haunt our collective soul. Hallmarks of Vuong’s writing – formal innovation, syntactic dexterity, and the ability to twin grit with grace through tenderness – are on full display in this story of loss, hope, and how far we would go to possess one of life’s most fleeting mercies: a second chance.</t>
+  </si>
+  <si>
+    <t>From a renowned historian comes a groundbreaking narrative of humanity’s creation and evolution—a #1 international bestseller—that explores the ways in which biology and history have defined us and enhanced our understanding of what it means to be “human.” One hundred thousand years ago, at least six different species of humans inhabited Earth. Yet today there is only one—homo sapiens. What happened to the others? And what may happen to us? Most books about the history of humanity pursue either a historical or a biological approach, but Dr. Yuval Noah Harari breaks the mold with this highly original book that begins about 70,000 years ago with the appearance of modern cognition. From examining the role evolving humans have played in the global ecosystem to charting the rise of empires, Sapiens integrates history and science to reconsider accepted narratives, connect past developments with contemporary concerns, and examine specific events within the context of larger ideas. Dr. Harari also compels us to look ahead, because over the last few decades humans have begun to bend laws of natural selection that have governed life for the past four billion years. We are acquiring the ability to design not only the world around us, but also ourselves. Where is this leading us, and what do we want to become? Featuring 27 photographs, 6 maps, and 25 illustrations/diagrams, this provocative and insightful work is sure to spark debate and is essential reading for aficionados of Jared Diamond, James Gleick, Matt Ridley, Robert Wright, and Sharon Moalem.</t>
+  </si>
+  <si>
+    <t>Tara Westover was 17 the first time she set foot in a classroom. Born to survivalists in the mountains of Idaho, she prepared for the end of the world by stockpiling home-canned peaches and sleeping with her "head-for-the-hills bag". In the summer she stewed herbs for her mother, a midwife and healer, and in the winter she salvaged in her father's junkyard.
+Her father forbade hospitals, so Tara never saw a doctor or nurse. Gashes and concussions, even burns from explosions, were all treated at home with herbalism. The family was so isolated from mainstream society that there was no one to ensure the children received an education and no one to intervene when one of Tara's older brothers became violent.
+Then, lacking any formal education, Tara began to educate herself. She taught herself enough mathematics and grammar to be admitted to Brigham Young University, where she studied history, learning for the first time about important world events like the Holocaust and the civil rights movement. Her quest for knowledge transformed her, taking her over oceans and across continents, to Harvard and to Cambridge. Only then would she wonder if she'd traveled too far, if there was still a way home.
+Educated is an account of the struggle for self-invention. It is a tale of fierce family loyalty and of the grief that comes with severing the closest of ties. With the acute insight that distinguishes all great writers, Westover has crafted a universal coming-of-age story that gets to the heart of what an education is and what it offers: the perspective to see one's life through new eyes and the will to change it.</t>
+  </si>
+  <si>
+    <t>For years, rumors of the “Marsh Girl” haunted Barkley Cove, a quiet fishing village. Kya Clark is barefoot and wild; unfit for polite society. So in late 1969, when the popular Chase Andrews is found dead, locals immediately suspect her.
+But Kya is not what they say. A born naturalist with just one day of school, she takes life's lessons from the land, learning the real ways of the world from the dishonest signals of fireflies. But while she has the skills to live in solitude forever, the time comes when she yearns to be touched and loved. Drawn to two young men from town, who are each intrigued by her wild beauty, Kya opens herself to a new and startling world—until the unthinkable happens.
+In Where the Crawdads Sing, Owens juxtaposes an exquisite ode to the natural world against a profound coming of age story and haunting mystery. Thought-provoking, wise, and deeply moving, Owens’s debut novel reminds us that we are forever shaped by the child within us, while also subject to the beautiful and violent secrets that nature keeps.
+The story asks how isolation influences the behavior of a young woman, who like all of us, has the genetic propensity to belong to a group. The clues to the mystery are brushed into the lush habitat and natural histories of its wild creatures.</t>
+  </si>
+  <si>
+    <t>Alicia Berenson’s life is seemingly perfect. A famous painter married to an in-demand fashion photographer, she lives in a grand house with big windows overlooking a park in one of London’s most desirable areas. One evening her husband Gabriel returns home late from a fashion shoot, and Alicia shoots him five times in the face, and then never speaks another word.
+Alicia’s refusal to talk, or give any kind of explanation, turns a domestic tragedy into something far grander, a mystery that captures the public imagination and casts Alicia into notoriety. The price of her art skyrockets, and she, the silent patient, is hidden away from the tabloids and spotlight at the Grove, a secure forensic unit in North London.
+Theo Faber is a criminal psychotherapist who has waited a long time for the opportunity to work with Alicia. His determination to get her to talk and unravel the mystery of why she shot her husband takes him down a twisting path into his own motivations—a search for the truth that threatens to consume him....
+The Silent Patient is a shocking psychological thriller of a woman’s act of violence against her husband—and of the therapist obsessed with uncovering her motive.</t>
+  </si>
+  <si>
+    <t>From BookTok sensation and NYT bestselling author Rachel Gillig, comes the next big romantasy phenomenon: a gothic, mist-cloaked tale of a prophetess who is forced beyond the safety of her cloister on an impossible quest to defeat the gods with the one knight whose future is beyond her sight.</t>
+  </si>
+  <si>
+    <t>Blake Porter is riding high, until he's not. Fired abruptly from his job as a VP of marketing and unable to make the mortgage payments on the new brownstone that he shares with his fiancee, he's desperate to make ends meet.
+Enter Whitney. Beautiful, charming, down-to-earth, and looking for a room to rent. She's exactly what Blake's looking for. Or is she?
+Because something isn't quite right. The neighbors start treating Blake differently. The smell of decay permeates his home, no matter how hard he scrubs. Strange noises jar him awake in the middle of the night. And soon Blake fears someone knows his darkest secrets...
+Danger lives right at home, and by the time Blake realizes it, it'll be far too late. The trap is already set.
+#1 New York Times bestselling author Freida McFadden knocks at your door with a gripping story of revenge, privilege, and secrets turned sour…</t>
+  </si>
+  <si>
+    <t>Lily hasn’t always had it easy, but that’s never stopped her from working hard for the life she wants. She’s come a long way from the small town where she grew up—she graduated from college, moved to Boston, and started her own business. And when she feels a spark with a gorgeous neurosurgeon named Ryle Kincaid, everything in Lily’s life seems too good to be true.
+Ryle is assertive, stubborn, maybe even a little arrogant. He’s also sensitive, brilliant, and has a total soft spot for Lily. And the way he looks in scrubs certainly doesn’t hurt. Lily can’t get him out of her head. But Ryle’s complete aversion to relationships is disturbing. Even as Lily finds herself becoming the exception to his “no dating” rule, she can’t help but wonder what made him that way in the first place.
+As questions about her new relationship overwhelm her, so do thoughts of Atlas Corrigan—her first love and a link to the past she left behind. He was her kindred spirit, her protector. When Atlas suddenly reappears, everything Lily has built with Ryle is threatened.</t>
+  </si>
+  <si>
+    <t>Lowen Ashleigh is a struggling writer on the brink of financial ruin when she accepts the job offer of a lifetime. Jeremy Crawford, husband of bestselling author Verity Crawford, has hired Lowen to complete the remaining books in a successful series his injured wife is unable to finish.
+Lowen arrives at the Crawford home, ready to sort through years of Verity's notes and outlines, hoping to find enough material to get her started. What Lowen doesn't expect to uncover in the chaotic office is an unfinished autobiography Verity never intended for anyone to read. Page after page of bone-chilling admissions, including Verity's recollection of what really happened the day her daughter died.
+Lowen decides to keep the manuscript hidden from Jeremy, knowing its contents would devastate the already grieving father. But as Lowen's feelings for Jeremy begin to intensify, she recognizes all the ways she could benefit if he were to read his wife's words. After all, no matter how devoted Jeremy is to his injured wife, a truth this horrifying would make it impossible for him to continue to love her.</t>
+  </si>
+  <si>
+    <t>One choice can transform you—or it can destroy you. But every choice has consequences, and as unrest surges in the factions all around her, Tris Prior must continue trying to save those she loves—and herself—while grappling with haunting questions of grief and forgiveness, identity and loyalty, politics and love.
+Tris's initiation day should have been marked by celebration and victory with her chosen faction; instead, the day ended with unspeakable horrors. War now looms as conflict between the factions and their ideologies grows. And in times of war, sides must be chosen, secrets will emerge, and choices will become even more irrevocable—and even more powerful. Transformed by her own decisions but also by haunting grief and guilt, radical new discoveries, and shifting relationships, Tris must fully embrace her Divergence, even if she does not know what she may lose by doing so.</t>
+  </si>
+  <si>
+    <t>Allegiant</t>
+  </si>
+  <si>
+    <t>The faction-based society that Tris Prior once believed in is shattered - fractured by violence and power struggles and scarred by loss and betrayal. So when offered a chance to explore the world past the limits she's known, Tris is ready. Perhaps beyond the fence, she and Tobias will find a simple new life together, free from complicated lies, tangled loyalties, and painful memories.
+But Tris's new reality is even more alarming than the one she left behind. Old discoveries are quickly rendered meaningless. Explosive new truths change the hearts of those she loves. And once again, Tris must battle to comprehend to complexities of human nature - and of herself - while facing impossible choices about courage, allegiance, sacrifice, and love.
+Told from a riveting dual perspective, ALLEGIANT, by #1 New York Times best-selling author Veronica Roth, brings the DIVERGENT series to a powerful conclusion while revealing the secrets of the dystopian world that has captivated millions of readers in DIVERGENT and INSURGENT.</t>
+  </si>
+  <si>
+    <t>First, Edward was a vampire.
+Second, there was a part of him - and I didn't know how dominant that part might be - that thirsted for my blood.
+And third, I was unconditionally and irrevocably in love with him.
+Deeply seductive and extraordinarily suspenseful, Twilight is a love story with bite.</t>
+  </si>
+  <si>
+    <t>BELLA?"
+Edward's soft voice came from behind me. I turned to see him spring lightly up the porch steps, his hair windblown from running. He pulled me into his arms at once, just like he had in the parking lot, and kissed me again.
+This kiss frightened me. There was too much tension, too strong an edge to the way his lips crushed mine - like he was afraid we had only so much time left to us.
+As Seattle is ravaged by a string of mysterious killings and a malicious vampire continues her quest for revenge, Bella once again finds herself surrounded by danger. In the midst of it all, she is forced to choose between her love for Edward and her friendship with Jacob - knowing that her decision has the potential to ignite the ageless struggle between vampire and werewolf. With her graduation quickly approaching, Bella has one more decision to make: life or death. But which is which?</t>
+  </si>
+  <si>
+    <t>When Edward Cullen and Bella Swan met in Twilight, an iconic love story was born. But until now, fans have heard only Bella’s side of the story. At last, readers can experience Edward’s version in the long-awaited companion novel, Midnight Sun.
+This unforgettable tale as told through Edward’s eyes takes on a new and decidedly dark twist. Meeting beautiful, mysterious Bella is both the most intriguing and unnerving event he has experienced in his long life as a vampire. As we learn more fascinating details about Edward’s past and the complexity of his inner thoughts, we understand why this is the defining struggle of his life. How can he let himself fall in love with Bella when he knows that he is endangering her life?
+In Midnight Sun, Stephenie Meyer transports us back to a world that has captivated millions of readers and, drawing on the classic myth of Hades and Persephone, brings us an epic novel about the profound pleasures and devastating consequences of immortal love.</t>
+  </si>
+  <si>
+    <t>Long ago, in a time forgotten, a preternatural event threw the seasons out of balance. In a land where summers can last decades and winters a lifetime, trouble is brewing. The cold is returning, and in the frozen wastes to the north of Winterfell, sinister forces are massing beyond the kingdom’s protective Wall. To the south, the king’s powers are failing—his most trusted adviser dead under mysterious circumstances and his enemies emerging from the shadows of the throne. At the center of the conflict lie the Starks of Winterfell, a family as harsh and unyielding as the frozen land they were born to. Now Lord Eddard Stark is reluctantly summoned to serve as the king’s new Hand, an appointment that threatens to sunder not only his family but the kingdom itself.
+Sweeping from a harsh land of cold to a summertime kingdom of epicurean plenty, A Game of Thrones tells a tale of lords and ladies, soldiers and sorcerers, assassins and bastards, who come together in a time of grim omens. Here an enigmatic band of warriors bear swords of no human metal; a tribe of fierce wildlings carry men off into madness; a cruel young dragon prince barters his sister to win back his throne; a child is lost in the twilight between life and death; and a determined woman undertakes a treacherous journey to protect all she holds dear. Amid plots and counter-plots, tragedy and betrayal, victory and terror, allies and enemies, the fate of the Starks hangs perilously in the balance, as each side endeavors to win that deadliest of conflicts: the game of thrones.</t>
   </si>
 </sst>
 </file>
@@ -972,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB145E0-DB29-4C38-857E-07BD615AE8C1}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1273,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1202,8 +1289,11 @@
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1219,8 +1309,11 @@
       <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1236,8 +1329,11 @@
       <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1253,8 +1349,11 @@
       <c r="E14" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1270,8 +1369,11 @@
       <c r="E15" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1287,8 +1389,11 @@
       <c r="E16" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1304,8 +1409,11 @@
       <c r="E17" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1321,8 +1429,11 @@
       <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1338,8 +1449,11 @@
       <c r="E19" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1355,8 +1469,11 @@
       <c r="E20" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1372,8 +1489,11 @@
       <c r="E21" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1389,10 +1509,13 @@
       <c r="E22" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -1406,8 +1529,11 @@
       <c r="E23" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1422,6 +1548,9 @@
       </c>
       <c r="E24" s="3" t="s">
         <v>97</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -1460,8 +1589,11 @@
       <c r="E26" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F26" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -1476,6 +1608,9 @@
       </c>
       <c r="E27" s="3" t="s">
         <v>104</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,7 +1698,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -1580,7 +1715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -1597,7 +1732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -1614,7 +1749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -1631,7 +1766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1648,7 +1783,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -1665,7 +1800,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -1682,7 +1817,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -1699,7 +1834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -1716,7 +1851,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -1733,7 +1868,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -1750,7 +1885,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -1767,7 +1902,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -1784,7 +1919,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -1801,7 +1936,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -1817,8 +1952,11 @@
       <c r="E47" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
